--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/WF0012 Cap nhat phieu xuat kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/WF0012 Cap nhat phieu xuat kho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DANGTHITIEUMAI\Products\ASOFT_ERP81\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\2015\12.KOYO\20151123_Load khoan muc chi phi tai man hinh nghiep vu\06. Xuat kho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -1975,7 +1975,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="372">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3563,6 +3563,63 @@
       </rPr>
       <t>: thực thi @SQL012</t>
     </r>
+  </si>
+  <si>
+    <t>Thị Phượng</t>
+  </si>
+  <si>
+    <t>LinkEdit</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>WFML000186</t>
+  </si>
+  <si>
+    <t>@SQL013</t>
+  </si>
+  <si>
+    <t>AT2006</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện IsWeb trước sửa Phiếu xuất</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID AND IsWeb=1</t>
+  </si>
+  <si>
+    <t>@DivisionID 
+@VoucherID
+@IsWeb</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@VoucherID
+1</t>
+  </si>
+  <si>
+    <t>Chỉ dùng Customize Hoàng Trần  (CustomizeIndex = 51) Kiểm tra điều kiện trước khi load màn hình cập nhật WF0012</t>
+  </si>
+  <si>
+    <t>-Cusomizec cho Hoàng Trần (CustomizeIndex = 51) Kiểm tra điều kiện Trước khi sửa
+ + Sheet Input Check Thêm WFML000186 
+ + Sheet Data Input thêm @SQL013
+ + Sheet Data Input Thêm xử lý cho màn hình khi sửa</t>
+  </si>
+  <si>
+    <t>Ver 7.0    CustomizeIndex = 51
+ Click LinkEdit  thực thi câu @SQL013 kiểm tra điều kiện IsWeb 
++ Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0012 chỉ Enabled các trường RefNo01, RefNo02, Description,  RDAddress, ContactPerson, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại thì disabled. click No thì thoát khỏi ra
++ Nếu =0 thực thi @SQL004 load giá trị cho Form WF0012</t>
   </si>
 </sst>
 </file>
@@ -4063,7 +4120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4855,264 +4912,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5129,15 +4931,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5167,6 +4960,327 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5175,6 +5289,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
@@ -5697,7 +5812,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:J12"/>
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5716,10 +5831,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="326"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5741,11 +5856,13 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126"/>
+      <c r="J1" s="126" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5767,7 +5884,9 @@
       <c r="I2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="15">
+        <v>42381</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -5794,14 +5913,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="291" t="s">
+      <c r="E4" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5818,14 +5937,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="292" t="s">
+      <c r="E5" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5840,14 +5959,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="294" t="s">
+      <c r="E6" s="330" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="295"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="296"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="332"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -5862,14 +5981,14 @@
       <c r="D7" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="333" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="334"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5884,14 +6003,14 @@
       <c r="D8" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="287" t="s">
+      <c r="E8" s="323" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="289"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="325"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5906,16 +6025,16 @@
       <c r="D9" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="300" t="s">
+      <c r="E9" s="306" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="301"/>
-      <c r="J9" s="302"/>
-    </row>
-    <row r="10" spans="1:10" s="369" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="307"/>
+      <c r="G9" s="307"/>
+      <c r="H9" s="307"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="308"/>
+    </row>
+    <row r="10" spans="1:10" s="287" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -5928,30 +6047,36 @@
       <c r="D10" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="370" t="s">
+      <c r="E10" s="309" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="371"/>
-      <c r="G10" s="371"/>
-      <c r="H10" s="371"/>
-      <c r="I10" s="371"/>
-      <c r="J10" s="372"/>
-    </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="310"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="310"/>
+      <c r="I10" s="310"/>
+      <c r="J10" s="311"/>
+    </row>
+    <row r="11" spans="1:10" s="30" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="119">
         <v>7</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="304"/>
-      <c r="J11" s="305"/>
+      <c r="C11" s="120">
+        <v>42381</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="392" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="312"/>
+      <c r="G11" s="312"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="312"/>
+      <c r="J11" s="313"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -5962,12 +6087,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="306"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="307"/>
-      <c r="H12" s="307"/>
-      <c r="I12" s="307"/>
-      <c r="J12" s="308"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="315"/>
+      <c r="J12" s="316"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -5978,12 +6103,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="310"/>
-      <c r="I13" s="310"/>
-      <c r="J13" s="311"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="318"/>
+      <c r="H13" s="318"/>
+      <c r="I13" s="318"/>
+      <c r="J13" s="319"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5994,361 +6119,369 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="313"/>
-      <c r="H14" s="313"/>
-      <c r="I14" s="313"/>
-      <c r="J14" s="314"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="321"/>
+      <c r="G14" s="321"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="321"/>
+      <c r="J14" s="322"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="305"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="305"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+      <c r="J20" s="305"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="305"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="305"/>
+      <c r="H31" s="305"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="305"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="299"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="305"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="305"/>
+      <c r="H34" s="305"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="305"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="305"/>
+      <c r="G35" s="305"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="305"/>
+      <c r="J35" s="305"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="305"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="305"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
+      <c r="E37" s="305"/>
+      <c r="F37" s="305"/>
+      <c r="G37" s="305"/>
+      <c r="H37" s="305"/>
+      <c r="I37" s="305"/>
+      <c r="J37" s="305"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="299"/>
-      <c r="J38" s="299"/>
+      <c r="E38" s="305"/>
+      <c r="F38" s="305"/>
+      <c r="G38" s="305"/>
+      <c r="H38" s="305"/>
+      <c r="I38" s="305"/>
+      <c r="J38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="299"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="305"/>
+      <c r="I39" s="305"/>
+      <c r="J39" s="305"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="299"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="305"/>
+      <c r="G40" s="305"/>
+      <c r="H40" s="305"/>
+      <c r="I40" s="305"/>
+      <c r="J40" s="305"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="299"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="305"/>
+      <c r="H41" s="305"/>
+      <c r="I41" s="305"/>
+      <c r="J41" s="305"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="299"/>
-      <c r="J42" s="299"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
+      <c r="H42" s="305"/>
+      <c r="I42" s="305"/>
+      <c r="J42" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
@@ -6361,24 +6494,16 @@
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6587,10 +6712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="326"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6615,14 +6740,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126">
+      <c r="J1" s="126" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6649,7 +6774,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6665,72 +6790,72 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290" t="s">
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="290"/>
+      <c r="J4" s="326"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="321"/>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="315" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="341" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="316"/>
+      <c r="J5" s="342"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
-      <c r="B6" s="325"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="317" t="s">
+      <c r="A6" s="338"/>
+      <c r="B6" s="339"/>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="343" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="318"/>
+      <c r="J6" s="344"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="324"/>
-      <c r="B7" s="325"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="319" t="s">
+      <c r="A7" s="338"/>
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="339"/>
+      <c r="H7" s="340"/>
+      <c r="I7" s="345" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="320"/>
+      <c r="J7" s="346"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="324"/>
-      <c r="B8" s="325"/>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="326"/>
+      <c r="A8" s="338"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="339"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="340"/>
       <c r="I8" s="189" t="s">
         <v>241</v>
       </c>
@@ -6813,358 +6938,339 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="305"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="305"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+      <c r="J20" s="305"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="305"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="305"/>
+      <c r="H31" s="305"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="305"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="299"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="305"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="305"/>
+      <c r="H34" s="305"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="305"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="305"/>
+      <c r="G35" s="305"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="305"/>
+      <c r="J35" s="305"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="305"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="305"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
+      <c r="E37" s="305"/>
+      <c r="F37" s="305"/>
+      <c r="G37" s="305"/>
+      <c r="H37" s="305"/>
+      <c r="I37" s="305"/>
+      <c r="J37" s="305"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="299"/>
-      <c r="J38" s="299"/>
+      <c r="E38" s="305"/>
+      <c r="F38" s="305"/>
+      <c r="G38" s="305"/>
+      <c r="H38" s="305"/>
+      <c r="I38" s="305"/>
+      <c r="J38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="299"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="305"/>
+      <c r="I39" s="305"/>
+      <c r="J39" s="305"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="299"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="305"/>
+      <c r="G40" s="305"/>
+      <c r="H40" s="305"/>
+      <c r="I40" s="305"/>
+      <c r="J40" s="305"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="299"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="305"/>
+      <c r="H41" s="305"/>
+      <c r="I41" s="305"/>
+      <c r="J41" s="305"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="299"/>
-      <c r="J42" s="299"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
+      <c r="H42" s="305"/>
+      <c r="I42" s="305"/>
+      <c r="J42" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -7181,6 +7287,25 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -7198,7 +7323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
@@ -7222,10 +7347,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="347"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -7250,18 +7375,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="328">
+      <c r="J1" s="348" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="329"/>
+        <v>Thị Phượng</v>
+      </c>
+      <c r="K1" s="349"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="327"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="347"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -7286,11 +7411,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="330">
+      <c r="J2" s="350">
         <f>'Update History'!J2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="331"/>
+        <v>42381</v>
+      </c>
+      <c r="K2" s="351"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -7992,7 +8117,7 @@
       <c r="N27" s="155"/>
     </row>
     <row r="28" spans="1:14" s="217" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="332" t="s">
+      <c r="A28" s="352" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="218">
@@ -8026,7 +8151,7 @@
       <c r="N28" s="216"/>
     </row>
     <row r="29" spans="1:14" s="217" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="333"/>
+      <c r="A29" s="353"/>
       <c r="B29" s="218">
         <v>42</v>
       </c>
@@ -9038,7 +9163,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:J19"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9056,10 +9181,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="326"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9084,14 +9209,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126">
+      <c r="J1" s="126" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9118,7 +9243,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9155,23 +9280,33 @@
       <c r="G4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="337" t="s">
+      <c r="H4" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="337"/>
-      <c r="J4" s="337"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="336"/>
+      <c r="A5" s="393"/>
+      <c r="B5" s="394" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="395" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="396"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="398" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="398" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="399" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" s="400"/>
+      <c r="J5" s="401"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
@@ -9181,9 +9316,9 @@
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="336"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="355"/>
+      <c r="J6" s="356"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
@@ -9193,9 +9328,9 @@
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="335"/>
-      <c r="J7" s="336"/>
+      <c r="H7" s="354"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -9205,9 +9340,9 @@
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="336"/>
+      <c r="H8" s="354"/>
+      <c r="I8" s="355"/>
+      <c r="J8" s="356"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
@@ -9217,9 +9352,9 @@
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="334"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="336"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="356"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -9229,9 +9364,9 @@
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="334"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="336"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="355"/>
+      <c r="J10" s="356"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -9241,9 +9376,9 @@
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="334"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="336"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="355"/>
+      <c r="J11" s="356"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
@@ -9253,9 +9388,9 @@
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="334"/>
-      <c r="I12" s="335"/>
-      <c r="J12" s="336"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="355"/>
+      <c r="J12" s="356"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -9265,9 +9400,9 @@
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="334"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="336"/>
+      <c r="H13" s="354"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="356"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -9277,372 +9412,348 @@
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="334"/>
-      <c r="I14" s="335"/>
-      <c r="J14" s="336"/>
+      <c r="H14" s="354"/>
+      <c r="I14" s="355"/>
+      <c r="J14" s="356"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="305"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="305"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+      <c r="J20" s="305"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="305"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="305"/>
+      <c r="H31" s="305"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="305"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="299"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="305"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="305"/>
+      <c r="H34" s="305"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="305"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="305"/>
+      <c r="G35" s="305"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="305"/>
+      <c r="J35" s="305"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="305"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="305"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
+      <c r="E37" s="305"/>
+      <c r="F37" s="305"/>
+      <c r="G37" s="305"/>
+      <c r="H37" s="305"/>
+      <c r="I37" s="305"/>
+      <c r="J37" s="305"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="299"/>
-      <c r="J38" s="299"/>
+      <c r="E38" s="305"/>
+      <c r="F38" s="305"/>
+      <c r="G38" s="305"/>
+      <c r="H38" s="305"/>
+      <c r="I38" s="305"/>
+      <c r="J38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="299"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="305"/>
+      <c r="I39" s="305"/>
+      <c r="J39" s="305"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="299"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="305"/>
+      <c r="G40" s="305"/>
+      <c r="H40" s="305"/>
+      <c r="I40" s="305"/>
+      <c r="J40" s="305"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="299"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="305"/>
+      <c r="H41" s="305"/>
+      <c r="I41" s="305"/>
+      <c r="J41" s="305"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="299"/>
-      <c r="J42" s="299"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
+      <c r="H42" s="305"/>
+      <c r="I42" s="305"/>
+      <c r="J42" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
@@ -9659,6 +9770,30 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -9694,10 +9829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="326"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9722,14 +9857,14 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126">
+      <c r="J1" s="126" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9756,20 +9891,20 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="342"/>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
-      <c r="G3" s="343"/>
-      <c r="H3" s="343"/>
-      <c r="I3" s="343"/>
-      <c r="J3" s="344"/>
+      <c r="A3" s="362"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
+      <c r="J3" s="364"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9784,16 +9919,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="338" t="s">
+      <c r="E4" s="358" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="338"/>
-      <c r="G4" s="339" t="s">
+      <c r="F4" s="358"/>
+      <c r="G4" s="359" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="341"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="360"/>
+      <c r="J4" s="361"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9920,347 +10055,351 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="305"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="305"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+      <c r="J20" s="305"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="305"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="305"/>
+      <c r="H31" s="305"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="305"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="299"/>
+      <c r="E32" s="305"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="305"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="305"/>
+      <c r="H34" s="305"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="305"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="305"/>
+      <c r="G35" s="305"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="305"/>
+      <c r="J35" s="305"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="305"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="305"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
+      <c r="E37" s="305"/>
+      <c r="F37" s="305"/>
+      <c r="G37" s="305"/>
+      <c r="H37" s="305"/>
+      <c r="I37" s="305"/>
+      <c r="J37" s="305"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="299"/>
-      <c r="J38" s="299"/>
+      <c r="E38" s="305"/>
+      <c r="F38" s="305"/>
+      <c r="G38" s="305"/>
+      <c r="H38" s="305"/>
+      <c r="I38" s="305"/>
+      <c r="J38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="299"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="305"/>
+      <c r="I39" s="305"/>
+      <c r="J39" s="305"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="299"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="305"/>
+      <c r="G40" s="305"/>
+      <c r="H40" s="305"/>
+      <c r="I40" s="305"/>
+      <c r="J40" s="305"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="299"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="305"/>
+      <c r="H41" s="305"/>
+      <c r="I41" s="305"/>
+      <c r="J41" s="305"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="299"/>
-      <c r="J42" s="299"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
+      <c r="H42" s="305"/>
+      <c r="I42" s="305"/>
+      <c r="J42" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
     <mergeCell ref="E31:J31"/>
@@ -10273,18 +10412,14 @@
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -10301,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10328,10 +10463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="326"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10356,9 +10491,9 @@
       <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126">
+      <c r="J1" s="126" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -10369,8 +10504,8 @@
       <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10397,7 +10532,7 @@
       </c>
       <c r="J2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -10408,16 +10543,16 @@
       <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="342"/>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
-      <c r="G3" s="343"/>
-      <c r="H3" s="343"/>
-      <c r="I3" s="343"/>
-      <c r="J3" s="344"/>
+      <c r="A3" s="362"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
+      <c r="J3" s="364"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -10451,12 +10586,12 @@
       <c r="H4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="339" t="s">
+      <c r="I4" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="341"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="361"/>
       <c r="M4" s="66" t="s">
         <v>44</v>
       </c>
@@ -10490,12 +10625,12 @@
       <c r="H5" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="346" t="s">
+      <c r="I5" s="378" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="347"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="348"/>
+      <c r="J5" s="379"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="380"/>
       <c r="M5" s="162"/>
       <c r="N5" s="161"/>
       <c r="O5" s="166" t="s">
@@ -10523,12 +10658,12 @@
       <c r="H6" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="349" t="s">
+      <c r="I6" s="381" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="350"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="351"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="382"/>
+      <c r="L6" s="383"/>
       <c r="M6" s="183" t="s">
         <v>230</v>
       </c>
@@ -10556,12 +10691,12 @@
       <c r="H7" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="349" t="s">
+      <c r="I7" s="381" t="s">
         <v>246</v>
       </c>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="351"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="382"/>
+      <c r="L7" s="383"/>
       <c r="M7" s="187" t="s">
         <v>234</v>
       </c>
@@ -10589,12 +10724,12 @@
       <c r="H8" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="346" t="s">
+      <c r="I8" s="378" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="348"/>
+      <c r="J8" s="379"/>
+      <c r="K8" s="379"/>
+      <c r="L8" s="380"/>
       <c r="M8" s="155"/>
       <c r="N8" s="155"/>
       <c r="O8" s="155"/>
@@ -10612,12 +10747,12 @@
       <c r="F9" s="195"/>
       <c r="G9" s="195"/>
       <c r="H9" s="196"/>
-      <c r="I9" s="352" t="s">
+      <c r="I9" s="384" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="353"/>
-      <c r="K9" s="353"/>
-      <c r="L9" s="354"/>
+      <c r="J9" s="385"/>
+      <c r="K9" s="385"/>
+      <c r="L9" s="386"/>
       <c r="M9" s="197" t="s">
         <v>253</v>
       </c>
@@ -10645,12 +10780,12 @@
       <c r="H10" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="I10" s="287" t="s">
+      <c r="I10" s="323" t="s">
         <v>308</v>
       </c>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="289"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="325"/>
       <c r="M10" s="225" t="s">
         <v>297</v>
       </c>
@@ -10678,12 +10813,12 @@
       <c r="H11" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="I11" s="355" t="s">
+      <c r="I11" s="365" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="356"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="357"/>
+      <c r="J11" s="366"/>
+      <c r="K11" s="366"/>
+      <c r="L11" s="367"/>
       <c r="M11" s="225" t="s">
         <v>297</v>
       </c>
@@ -10711,12 +10846,12 @@
       <c r="H12" s="225" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="358" t="s">
+      <c r="I12" s="368" t="s">
         <v>311</v>
       </c>
-      <c r="J12" s="359"/>
-      <c r="K12" s="359"/>
-      <c r="L12" s="360"/>
+      <c r="J12" s="369"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="370"/>
       <c r="M12" s="255" t="s">
         <v>303</v>
       </c>
@@ -10744,12 +10879,12 @@
       <c r="H13" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="I13" s="361" t="s">
+      <c r="I13" s="371" t="s">
         <v>318</v>
       </c>
-      <c r="J13" s="362"/>
-      <c r="K13" s="362"/>
-      <c r="L13" s="363"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="373"/>
       <c r="M13" s="266" t="s">
         <v>319</v>
       </c>
@@ -10777,12 +10912,12 @@
       <c r="H14" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="I14" s="361" t="s">
+      <c r="I14" s="371" t="s">
         <v>322</v>
       </c>
-      <c r="J14" s="362"/>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="373"/>
       <c r="M14" s="269" t="s">
         <v>323</v>
       </c>
@@ -10810,114 +10945,136 @@
       <c r="H15" s="261" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="361" t="s">
+      <c r="I15" s="371" t="s">
         <v>326</v>
       </c>
-      <c r="J15" s="362"/>
-      <c r="K15" s="362"/>
-      <c r="L15" s="363"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="372"/>
+      <c r="L15" s="373"/>
       <c r="M15" s="262"/>
       <c r="N15" s="262"/>
       <c r="O15" s="262"/>
       <c r="P15" s="262"/>
       <c r="Q15" s="262"/>
     </row>
-    <row r="16" spans="1:17" s="369" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="373"/>
+    <row r="16" spans="1:17" s="287" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="288"/>
       <c r="B16" s="116"/>
-      <c r="C16" s="374" t="s">
+      <c r="C16" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="375" t="s">
+      <c r="D16" s="290" t="s">
         <v>338</v>
       </c>
-      <c r="E16" s="376" t="s">
+      <c r="E16" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="377" t="s">
+      <c r="F16" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="377" t="s">
+      <c r="G16" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="378" t="s">
+      <c r="H16" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="I16" s="379" t="s">
+      <c r="I16" s="374" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="380"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="381"/>
-      <c r="M16" s="382" t="s">
+      <c r="J16" s="375"/>
+      <c r="K16" s="375"/>
+      <c r="L16" s="376"/>
+      <c r="M16" s="294" t="s">
         <v>340</v>
       </c>
-      <c r="N16" s="382" t="s">
+      <c r="N16" s="294" t="s">
         <v>341</v>
       </c>
-      <c r="O16" s="383"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="376" t="s">
+      <c r="O16" s="295"/>
+      <c r="P16" s="295"/>
+      <c r="Q16" s="291" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="369" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="373"/>
+    <row r="17" spans="1:17" s="287" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="288"/>
       <c r="B17" s="116"/>
-      <c r="C17" s="374" t="s">
+      <c r="C17" s="289" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="375" t="s">
+      <c r="D17" s="290" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="376" t="s">
+      <c r="E17" s="291" t="s">
         <v>343</v>
       </c>
-      <c r="F17" s="377" t="s">
+      <c r="F17" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="377" t="s">
+      <c r="G17" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="378" t="s">
+      <c r="H17" s="293" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="379" t="s">
+      <c r="I17" s="374" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="380"/>
-      <c r="K17" s="380"/>
-      <c r="L17" s="381"/>
-      <c r="M17" s="382" t="s">
+      <c r="J17" s="375"/>
+      <c r="K17" s="375"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="294" t="s">
         <v>346</v>
       </c>
-      <c r="N17" s="382" t="s">
+      <c r="N17" s="294" t="s">
         <v>347</v>
       </c>
-      <c r="O17" s="383"/>
-      <c r="P17" s="383"/>
-      <c r="Q17" s="376" t="s">
+      <c r="O17" s="295"/>
+      <c r="P17" s="295"/>
+      <c r="Q17" s="291" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="334"/>
-      <c r="J18" s="335"/>
-      <c r="K18" s="335"/>
-      <c r="L18" s="336"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+    <row r="18" spans="1:17" s="404" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="407"/>
+      <c r="B18" s="394" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="402"/>
+      <c r="D18" s="393"/>
+      <c r="E18" s="398" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="398" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="398" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="408" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" s="409" t="s">
+        <v>366</v>
+      </c>
+      <c r="J18" s="410"/>
+      <c r="K18" s="410"/>
+      <c r="L18" s="411"/>
+      <c r="M18" s="397" t="s">
+        <v>367</v>
+      </c>
+      <c r="N18" s="397" t="s">
+        <v>368</v>
+      </c>
+      <c r="O18" s="403" t="s">
+        <v>358</v>
+      </c>
+      <c r="P18" s="403" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="398" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
@@ -10928,10 +11085,10 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="334"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="336"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="355"/>
+      <c r="K19" s="355"/>
+      <c r="L19" s="356"/>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -10943,12 +11100,12 @@
       <c r="B20" s="19"/>
       <c r="C20" s="57"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="293"/>
-      <c r="G20" s="293"/>
-      <c r="H20" s="293"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="293"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
+      <c r="I20" s="329"/>
+      <c r="J20" s="329"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -10962,12 +11119,12 @@
       <c r="B21" s="19"/>
       <c r="C21" s="57"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="293"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="293"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
+      <c r="J21" s="329"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -10981,12 +11138,12 @@
       <c r="B22" s="19"/>
       <c r="C22" s="57"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="293"/>
-      <c r="F22" s="293"/>
-      <c r="G22" s="293"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="293"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="329"/>
+      <c r="J22" s="329"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
@@ -11000,12 +11157,12 @@
       <c r="B23" s="19"/>
       <c r="C23" s="57"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="293"/>
-      <c r="G23" s="293"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="293"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="329"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
@@ -11019,12 +11176,12 @@
       <c r="B24" s="19"/>
       <c r="C24" s="57"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="293"/>
-      <c r="F24" s="293"/>
-      <c r="G24" s="293"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="293"/>
-      <c r="J24" s="293"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="329"/>
+      <c r="H24" s="329"/>
+      <c r="I24" s="329"/>
+      <c r="J24" s="329"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
@@ -11038,12 +11195,12 @@
       <c r="B25" s="19"/>
       <c r="C25" s="57"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
+      <c r="E25" s="329"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="329"/>
+      <c r="J25" s="329"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
@@ -11057,12 +11214,12 @@
       <c r="B26" s="19"/>
       <c r="C26" s="57"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="293"/>
-      <c r="F26" s="293"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="293"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
+      <c r="I26" s="329"/>
+      <c r="J26" s="329"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
@@ -11076,12 +11233,12 @@
       <c r="B27" s="19"/>
       <c r="C27" s="57"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="293"/>
-      <c r="F27" s="293"/>
-      <c r="G27" s="293"/>
-      <c r="H27" s="293"/>
-      <c r="I27" s="293"/>
-      <c r="J27" s="293"/>
+      <c r="E27" s="329"/>
+      <c r="F27" s="329"/>
+      <c r="G27" s="329"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="329"/>
+      <c r="J27" s="329"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
@@ -11095,195 +11252,171 @@
       <c r="B28" s="39"/>
       <c r="C28" s="42"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="345"/>
-      <c r="F28" s="345"/>
-      <c r="G28" s="345"/>
-      <c r="H28" s="345"/>
-      <c r="I28" s="345"/>
-      <c r="J28" s="345"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="377"/>
+      <c r="I28" s="377"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
       <c r="D29" s="38"/>
-      <c r="E29" s="345"/>
-      <c r="F29" s="345"/>
-      <c r="G29" s="345"/>
-      <c r="H29" s="345"/>
-      <c r="I29" s="345"/>
-      <c r="J29" s="345"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
     </row>
     <row r="30" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="345"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
-      <c r="H30" s="345"/>
-      <c r="I30" s="345"/>
-      <c r="J30" s="345"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
     </row>
     <row r="31" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="345"/>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345"/>
-      <c r="H31" s="345"/>
-      <c r="I31" s="345"/>
-      <c r="J31" s="345"/>
+      <c r="E31" s="377"/>
+      <c r="F31" s="377"/>
+      <c r="G31" s="377"/>
+      <c r="H31" s="377"/>
+      <c r="I31" s="377"/>
+      <c r="J31" s="377"/>
     </row>
     <row r="32" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="345"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
-      <c r="H32" s="345"/>
-      <c r="I32" s="345"/>
-      <c r="J32" s="345"/>
+      <c r="E32" s="377"/>
+      <c r="F32" s="377"/>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377"/>
+      <c r="I32" s="377"/>
+      <c r="J32" s="377"/>
     </row>
     <row r="33" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="39"/>
       <c r="C33" s="42"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="345"/>
-      <c r="G33" s="345"/>
-      <c r="H33" s="345"/>
-      <c r="I33" s="345"/>
-      <c r="J33" s="345"/>
+      <c r="E33" s="377"/>
+      <c r="F33" s="377"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="377"/>
+      <c r="I33" s="377"/>
+      <c r="J33" s="377"/>
     </row>
     <row r="34" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="39"/>
       <c r="C34" s="42"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="345"/>
-      <c r="F34" s="345"/>
-      <c r="G34" s="345"/>
-      <c r="H34" s="345"/>
-      <c r="I34" s="345"/>
-      <c r="J34" s="345"/>
+      <c r="E34" s="377"/>
+      <c r="F34" s="377"/>
+      <c r="G34" s="377"/>
+      <c r="H34" s="377"/>
+      <c r="I34" s="377"/>
+      <c r="J34" s="377"/>
     </row>
     <row r="35" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="39"/>
       <c r="C35" s="42"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="345"/>
-      <c r="F35" s="345"/>
-      <c r="G35" s="345"/>
-      <c r="H35" s="345"/>
-      <c r="I35" s="345"/>
-      <c r="J35" s="345"/>
+      <c r="E35" s="377"/>
+      <c r="F35" s="377"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="377"/>
+      <c r="I35" s="377"/>
+      <c r="J35" s="377"/>
     </row>
     <row r="36" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="39"/>
       <c r="C36" s="42"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="345"/>
-      <c r="F36" s="345"/>
-      <c r="G36" s="345"/>
-      <c r="H36" s="345"/>
-      <c r="I36" s="345"/>
-      <c r="J36" s="345"/>
+      <c r="E36" s="377"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="377"/>
+      <c r="I36" s="377"/>
+      <c r="J36" s="377"/>
     </row>
     <row r="37" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="39"/>
       <c r="C37" s="42"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="345"/>
-      <c r="F37" s="345"/>
-      <c r="G37" s="345"/>
-      <c r="H37" s="345"/>
-      <c r="I37" s="345"/>
-      <c r="J37" s="345"/>
+      <c r="E37" s="377"/>
+      <c r="F37" s="377"/>
+      <c r="G37" s="377"/>
+      <c r="H37" s="377"/>
+      <c r="I37" s="377"/>
+      <c r="J37" s="377"/>
     </row>
     <row r="38" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="39"/>
       <c r="C38" s="42"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="345"/>
-      <c r="F38" s="345"/>
-      <c r="G38" s="345"/>
-      <c r="H38" s="345"/>
-      <c r="I38" s="345"/>
-      <c r="J38" s="345"/>
+      <c r="E38" s="377"/>
+      <c r="F38" s="377"/>
+      <c r="G38" s="377"/>
+      <c r="H38" s="377"/>
+      <c r="I38" s="377"/>
+      <c r="J38" s="377"/>
     </row>
     <row r="39" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="39"/>
       <c r="C39" s="42"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="345"/>
-      <c r="F39" s="345"/>
-      <c r="G39" s="345"/>
-      <c r="H39" s="345"/>
-      <c r="I39" s="345"/>
-      <c r="J39" s="345"/>
+      <c r="E39" s="377"/>
+      <c r="F39" s="377"/>
+      <c r="G39" s="377"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="377"/>
     </row>
     <row r="40" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="39"/>
       <c r="C40" s="42"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="345"/>
-      <c r="F40" s="345"/>
-      <c r="G40" s="345"/>
-      <c r="H40" s="345"/>
-      <c r="I40" s="345"/>
-      <c r="J40" s="345"/>
+      <c r="E40" s="377"/>
+      <c r="F40" s="377"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
+      <c r="I40" s="377"/>
+      <c r="J40" s="377"/>
     </row>
     <row r="41" spans="1:10" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="39"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="345"/>
-      <c r="F41" s="345"/>
-      <c r="G41" s="345"/>
-      <c r="H41" s="345"/>
-      <c r="I41" s="345"/>
-      <c r="J41" s="345"/>
+      <c r="E41" s="377"/>
+      <c r="F41" s="377"/>
+      <c r="G41" s="377"/>
+      <c r="H41" s="377"/>
+      <c r="I41" s="377"/>
+      <c r="J41" s="377"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="I17:L17"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -11300,6 +11433,30 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -11326,8 +11483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11346,11 +11503,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11375,15 +11532,15 @@
       <c r="J1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="126">
+      <c r="K1" s="126" t="str">
         <f>'Update History'!J1</f>
-        <v>0</v>
+        <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -11410,7 +11567,7 @@
       </c>
       <c r="K2" s="15">
         <f>'Update History'!J2</f>
-        <v>0</v>
+        <v>42381</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11654,65 +11811,65 @@
       <c r="K18" s="68"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" s="369" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="384"/>
-      <c r="B19" s="385"/>
-      <c r="C19" s="386" t="s">
+    <row r="19" spans="1:12" s="287" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="296"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="298" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="387"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="387"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="388"/>
-      <c r="K19" s="389"/>
-    </row>
-    <row r="20" spans="1:12" s="369" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="384"/>
-      <c r="B20" s="385"/>
-      <c r="C20" s="390" t="s">
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="301"/>
+    </row>
+    <row r="20" spans="1:12" s="287" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="296"/>
+      <c r="B20" s="297"/>
+      <c r="C20" s="302" t="s">
         <v>353</v>
       </c>
-      <c r="D20" s="387"/>
-      <c r="E20" s="387"/>
-      <c r="F20" s="387"/>
-      <c r="G20" s="387"/>
-      <c r="H20" s="387"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="389"/>
-    </row>
-    <row r="21" spans="1:12" s="369" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="384"/>
-      <c r="B21" s="385"/>
-      <c r="C21" s="390" t="s">
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="300"/>
+      <c r="J20" s="300"/>
+      <c r="K20" s="301"/>
+    </row>
+    <row r="21" spans="1:12" s="287" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="296"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="302" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="388"/>
-      <c r="J21" s="388"/>
-      <c r="K21" s="389"/>
-    </row>
-    <row r="22" spans="1:12" s="369" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="384"/>
-      <c r="B22" s="384"/>
-      <c r="C22" s="390" t="s">
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="300"/>
+      <c r="J21" s="300"/>
+      <c r="K21" s="301"/>
+    </row>
+    <row r="22" spans="1:12" s="287" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="296"/>
+      <c r="B22" s="296"/>
+      <c r="C22" s="302" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="387"/>
-      <c r="E22" s="387"/>
-      <c r="F22" s="387"/>
-      <c r="G22" s="387"/>
-      <c r="H22" s="387"/>
-      <c r="I22" s="388"/>
-      <c r="J22" s="388"/>
-      <c r="K22" s="389"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="300"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="301"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="173"/>
@@ -12108,37 +12265,37 @@
       <c r="K47" s="48"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="1:12" s="369" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="391"/>
-      <c r="B48" s="385"/>
-      <c r="C48" s="386" t="s">
+    <row r="48" spans="1:12" s="287" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="303"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="298" t="s">
         <v>352</v>
       </c>
-      <c r="D48" s="390"/>
-      <c r="E48" s="390" t="s">
+      <c r="D48" s="302"/>
+      <c r="E48" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="F48" s="387"/>
-      <c r="G48" s="387"/>
-      <c r="H48" s="387"/>
-      <c r="I48" s="388"/>
-      <c r="J48" s="388"/>
-      <c r="K48" s="389"/>
-    </row>
-    <row r="49" spans="1:12" s="369" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="391"/>
-      <c r="B49" s="385"/>
-      <c r="C49" s="392"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390" t="s">
+      <c r="F48" s="299"/>
+      <c r="G48" s="299"/>
+      <c r="H48" s="299"/>
+      <c r="I48" s="300"/>
+      <c r="J48" s="300"/>
+      <c r="K48" s="301"/>
+    </row>
+    <row r="49" spans="1:12" s="287" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="303"/>
+      <c r="B49" s="297"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="302"/>
+      <c r="E49" s="302" t="s">
         <v>356</v>
       </c>
-      <c r="F49" s="387"/>
-      <c r="G49" s="387"/>
-      <c r="H49" s="387"/>
-      <c r="I49" s="388"/>
-      <c r="J49" s="388"/>
-      <c r="K49" s="389"/>
+      <c r="F49" s="299"/>
+      <c r="G49" s="299"/>
+      <c r="H49" s="299"/>
+      <c r="I49" s="300"/>
+      <c r="J49" s="300"/>
+      <c r="K49" s="301"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="172"/>
@@ -12154,19 +12311,21 @@
       <c r="K50" s="48"/>
       <c r="L50" s="17"/>
     </row>
-    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="172"/>
-      <c r="B51" s="171"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="175"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="17"/>
+    <row r="51" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="405" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="406"/>
+      <c r="C51" s="406"/>
+      <c r="D51" s="406"/>
+      <c r="E51" s="406"/>
+      <c r="F51" s="406"/>
+      <c r="G51" s="406"/>
+      <c r="H51" s="406"/>
+      <c r="I51" s="406"/>
+      <c r="J51" s="406"/>
+      <c r="K51" s="406"/>
+      <c r="L51" s="406"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="169" t="s">
@@ -12269,12 +12428,12 @@
       <c r="C58" s="39"/>
       <c r="D58" s="42"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="345"/>
-      <c r="G58" s="345"/>
-      <c r="H58" s="345"/>
-      <c r="I58" s="345"/>
-      <c r="J58" s="345"/>
-      <c r="K58" s="345"/>
+      <c r="F58" s="377"/>
+      <c r="G58" s="377"/>
+      <c r="H58" s="377"/>
+      <c r="I58" s="377"/>
+      <c r="J58" s="377"/>
+      <c r="K58" s="377"/>
       <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12285,12 +12444,12 @@
       <c r="C59" s="228"/>
       <c r="D59" s="229"/>
       <c r="E59" s="230"/>
-      <c r="F59" s="364"/>
-      <c r="G59" s="364"/>
-      <c r="H59" s="364"/>
-      <c r="I59" s="364"/>
-      <c r="J59" s="364"/>
-      <c r="K59" s="364"/>
+      <c r="F59" s="387"/>
+      <c r="G59" s="387"/>
+      <c r="H59" s="387"/>
+      <c r="I59" s="387"/>
+      <c r="J59" s="387"/>
+      <c r="K59" s="387"/>
       <c r="L59" s="231"/>
     </row>
     <row r="60" spans="1:12" s="263" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12316,12 +12475,12 @@
       <c r="C61" s="232"/>
       <c r="D61" s="233"/>
       <c r="E61" s="234"/>
-      <c r="F61" s="364"/>
-      <c r="G61" s="364"/>
-      <c r="H61" s="364"/>
-      <c r="I61" s="364"/>
-      <c r="J61" s="364"/>
-      <c r="K61" s="364"/>
+      <c r="F61" s="387"/>
+      <c r="G61" s="387"/>
+      <c r="H61" s="387"/>
+      <c r="I61" s="387"/>
+      <c r="J61" s="387"/>
+      <c r="K61" s="387"/>
       <c r="L61" s="235"/>
     </row>
     <row r="62" spans="1:12" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12452,11 +12611,12 @@
       <c r="L76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F58:K58"/>
     <mergeCell ref="F59:K59"/>
     <mergeCell ref="F61:K61"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A51:L51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
@@ -12493,11 +12653,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12520,9 +12680,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12892,12 +13052,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="345"/>
-      <c r="G28" s="345"/>
-      <c r="H28" s="345"/>
-      <c r="I28" s="345"/>
-      <c r="J28" s="345"/>
-      <c r="K28" s="345"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="377"/>
+      <c r="I28" s="377"/>
+      <c r="J28" s="377"/>
+      <c r="K28" s="377"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12906,12 +13066,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="345"/>
-      <c r="G29" s="345"/>
-      <c r="H29" s="345"/>
-      <c r="I29" s="345"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="345"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="377"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -12920,12 +13080,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
-      <c r="H30" s="345"/>
-      <c r="I30" s="345"/>
-      <c r="J30" s="345"/>
-      <c r="K30" s="345"/>
+      <c r="F30" s="377"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
+      <c r="K30" s="377"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12934,12 +13094,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345"/>
-      <c r="H31" s="345"/>
-      <c r="I31" s="345"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="345"/>
+      <c r="F31" s="377"/>
+      <c r="G31" s="377"/>
+      <c r="H31" s="377"/>
+      <c r="I31" s="377"/>
+      <c r="J31" s="377"/>
+      <c r="K31" s="377"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -13148,7 +13308,7 @@
   <dimension ref="A2:K63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13159,14 +13319,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="365" t="s">
+      <c r="E2" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13587,11 +13747,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="389" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="368"/>
+      <c r="F28" s="390"/>
+      <c r="G28" s="391"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
